--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1BB735-E1A5-47FA-9901-665BC2F6E563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE4A0B-FCA8-4AFF-949D-F8626BE3590A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{D4E53C97-B5F0-4187-8ABA-7D06CADAD88F}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{D4E53C97-B5F0-4187-8ABA-7D06CADAD88F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -231,13 +231,19 @@
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -301,24 +307,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -657,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CCFA51-5998-459C-9259-D851D24389D5}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -682,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="10">
-        <v>191.51</v>
+        <v>280.61</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -690,10 +700,11 @@
         <v>5</v>
       </c>
       <c r="I3" s="4">
-        <v>12122</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>55</v>
+        <f>5818+842+5407</f>
+        <v>12067</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -705,7 +716,7 @@
       </c>
       <c r="I4" s="4">
         <f>I2*I3</f>
-        <v>2321484.2199999997</v>
+        <v>3386120.87</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -716,11 +727,11 @@
         <v>7</v>
       </c>
       <c r="I5" s="4">
-        <f>21036+74112</f>
-        <v>95148</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>55</v>
+        <f>23090+75406</f>
+        <v>98496</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -731,10 +742,10 @@
         <v>8</v>
       </c>
       <c r="I6" s="4">
-        <v>23607</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>55</v>
+        <v>21607</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -743,7 +754,7 @@
       </c>
       <c r="I7" s="4">
         <f>I4-I5+I6</f>
-        <v>2249943.2199999997</v>
+        <v>3309231.87</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -787,11 +798,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DE9DFC-D321-430C-971E-EAB3ABB980BE}">
   <dimension ref="A1:R342"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -878,7 +889,9 @@
       <c r="L3" s="4">
         <v>54190</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4">
+        <v>56567</v>
+      </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -919,7 +932,9 @@
       <c r="L4" s="4">
         <v>9796</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="13">
+        <v>10261</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -960,7 +975,9 @@
       <c r="L5" s="4">
         <v>7354</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4">
+        <v>7354</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1001,7 +1018,9 @@
       <c r="L6" s="4">
         <v>11203</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <v>12870</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1042,7 +1061,9 @@
       <c r="L7" s="4">
         <v>13624</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4">
+        <v>15157</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1093,7 +1114,9 @@
         <f>373-112</f>
         <v>261</v>
       </c>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4">
+        <v>344</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1134,7 +1157,9 @@
       <c r="L9" s="6">
         <v>96428</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="6">
+        <v>102346</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1175,7 +1200,9 @@
       <c r="L10" s="4">
         <v>39039</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <v>41369</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1226,7 +1253,10 @@
         <f>L9-L10</f>
         <v>57389</v>
       </c>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <f>M9-M10</f>
+        <v>60977</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1267,7 +1297,9 @@
       <c r="L12" s="4">
         <v>13808</v>
       </c>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4">
+        <v>15151</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1308,7 +1340,9 @@
       <c r="L13" s="4">
         <v>7101</v>
       </c>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4">
+        <v>7205</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1349,7 +1383,9 @@
       <c r="L14" s="4">
         <v>5209</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4">
+        <v>7393</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1365,7 +1401,7 @@
         <v>17415</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ref="D15:L15" si="2">D11-SUM(D12:D14)</f>
+        <f t="shared" ref="D15:M15" si="2">D11-SUM(D12:D14)</f>
         <v>21838</v>
       </c>
       <c r="E15" s="4">
@@ -1400,7 +1436,10 @@
         <f t="shared" si="2"/>
         <v>31271</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4">
+        <f t="shared" si="2"/>
+        <v>31228</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1441,7 +1480,9 @@
       <c r="L16" s="4">
         <v>2662</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4">
+        <v>12759</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1457,7 +1498,7 @@
         <v>18205</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ref="D17:L17" si="4">D15+D16</f>
+        <f t="shared" ref="D17:M17" si="4">D15+D16</f>
         <v>21901</v>
       </c>
       <c r="E17" s="4">
@@ -1492,7 +1533,10 @@
         <f t="shared" si="4"/>
         <v>33933</v>
       </c>
-      <c r="M17" s="4"/>
+      <c r="M17" s="4">
+        <f t="shared" si="4"/>
+        <v>43987</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1533,7 +1577,9 @@
       <c r="L18" s="4">
         <v>5737</v>
       </c>
-      <c r="M18" s="4"/>
+      <c r="M18" s="4">
+        <v>9008</v>
+      </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1549,7 +1595,7 @@
         <v>15051</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:L19" si="6">D17-D18</f>
+        <f t="shared" ref="D19:M19" si="6">D17-D18</f>
         <v>18366</v>
       </c>
       <c r="E19" s="4">
@@ -1584,7 +1630,10 @@
         <f t="shared" si="6"/>
         <v>28196</v>
       </c>
-      <c r="M19" s="4"/>
+      <c r="M19" s="4">
+        <f t="shared" si="6"/>
+        <v>34979</v>
+      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -1653,7 +1702,10 @@
         <f>+L19/L22</f>
         <v>2.3260188087774294</v>
       </c>
-      <c r="M21" s="4"/>
+      <c r="M21" s="7">
+        <f>+M19/M22</f>
+        <v>2.8941750786033427</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -1694,7 +1746,9 @@
       <c r="L22" s="4">
         <v>12122</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4">
+        <v>12086</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -1751,7 +1805,10 @@
         <f>+L3/H3-1</f>
         <v>0.11711228844132027</v>
       </c>
-      <c r="M24" s="4"/>
+      <c r="M24" s="8">
+        <f>+M3/I3-1</f>
+        <v>0.14542877391920617</v>
+      </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -1779,7 +1836,7 @@
         <v>0.12185613682092544</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ref="J25:L30" si="9">+J4/F4-1</f>
+        <f t="shared" ref="J25:M30" si="9">+J4/F4-1</f>
         <v>0.1383695652173913</v>
       </c>
       <c r="K25" s="8">
@@ -1790,7 +1847,10 @@
         <f t="shared" si="9"/>
         <v>0.1307861018123051</v>
       </c>
-      <c r="M25" s="4"/>
+      <c r="M25" s="8">
+        <f t="shared" si="9"/>
+        <v>0.15020737585472488</v>
+      </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -1829,7 +1889,10 @@
         <f t="shared" si="9"/>
         <v>-1.2090274046211769E-2</v>
       </c>
-      <c r="M26" s="4"/>
+      <c r="M26" s="8">
+        <f t="shared" si="9"/>
+        <v>-2.5702172760996289E-2</v>
+      </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -1868,7 +1931,10 @@
         <f t="shared" si="9"/>
         <v>0.20307130584192445</v>
       </c>
-      <c r="M27" s="4"/>
+      <c r="M27" s="8">
+        <f t="shared" si="9"/>
+        <v>0.20777027027027017</v>
+      </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -1907,7 +1973,10 @@
         <f t="shared" si="9"/>
         <v>0.31671015753358467</v>
       </c>
-      <c r="M28" s="4"/>
+      <c r="M28" s="8">
+        <f t="shared" si="9"/>
+        <v>0.33506562142165075</v>
+      </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -1946,7 +2015,10 @@
         <f t="shared" si="9"/>
         <v>-0.4411134903640257</v>
       </c>
-      <c r="M29" s="4"/>
+      <c r="M29" s="8">
+        <f t="shared" si="9"/>
+        <v>-0.15061728395061724</v>
+      </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -1985,7 +2057,10 @@
         <f t="shared" si="9"/>
         <v>0.13790092280097244</v>
       </c>
-      <c r="M30" s="4"/>
+      <c r="M30" s="9">
+        <f t="shared" si="9"/>
+        <v>0.1594915484660353</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -2036,7 +2111,10 @@
         <f>+L11/L9</f>
         <v>0.59514871199236741</v>
       </c>
-      <c r="M31" s="4"/>
+      <c r="M31" s="8">
+        <f>+M11/M9</f>
+        <v>0.59579270318331934</v>
+      </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -2087,7 +2165,10 @@
         <f>+L15/L9</f>
         <v>0.32429377359273243</v>
       </c>
-      <c r="M32" s="4"/>
+      <c r="M32" s="8">
+        <f>+M15/M9</f>
+        <v>0.30512184159615424</v>
+      </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -2138,7 +2219,10 @@
         <f>+L18/L17</f>
         <v>0.16906845843279403</v>
       </c>
-      <c r="M33" s="4"/>
+      <c r="M33" s="8">
+        <f>+M18/M17</f>
+        <v>0.20478777820719757</v>
+      </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
